--- a/tables/single_drug.xlsx
+++ b/tables/single_drug.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\lit_review_semi_mechanistic_models\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\pmx-models-atb-review\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77254AE7-0EDF-4C5F-8B02-206CD11CC80A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB186942-06E3-4419-895B-02DF20121BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$93</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="380">
   <si>
     <t>Drugs</t>
   </si>
@@ -109,9 +112,6 @@
     <t>subpopulations, persister formation</t>
   </si>
   <si>
-    <t>no pk population</t>
-  </si>
-  <si>
     <t>meropenem</t>
   </si>
   <si>
@@ -184,9 +184,6 @@
     <t>Nguyen</t>
   </si>
   <si>
-    <t>polymyxin b</t>
-  </si>
-  <si>
     <t>Klebsiella pneumoniae, 2 strains</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>Pelligand</t>
   </si>
   <si>
-    <t>levofloxacin;gentamicin;clindamycin;vancomycin;polymyxin b</t>
-  </si>
-  <si>
     <t>Pseudomonas aeruginosa, 1 strains;Staphylococcus aureus, 2 strains</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>Alhadab</t>
   </si>
   <si>
-    <t>adaptive resistance, not the uppsala way</t>
-  </si>
-  <si>
     <t>colistin</t>
   </si>
   <si>
@@ -385,9 +376,6 @@
     <t>piperacillin</t>
   </si>
   <si>
-    <t>colistin;polymyxin b</t>
-  </si>
-  <si>
     <t>Acinetobacter baumannii, 4 strains</t>
   </si>
   <si>
@@ -472,9 +460,6 @@
     <t>Tsuji</t>
   </si>
   <si>
-    <t>other, number of sensitive alleles as covariate on ic50</t>
-  </si>
-  <si>
     <t>Staphylococcus aureus, 4 strains</t>
   </si>
   <si>
@@ -601,9 +586,6 @@
     <t>ceftazidime</t>
   </si>
   <si>
-    <t>sEmax, growth, yes, NA, NA, delay between binding to pbps and depletion of cell wall constituents</t>
-  </si>
-  <si>
     <t>inoculum effect, autolysin activity</t>
   </si>
   <si>
@@ -619,9 +601,6 @@
     <t>Tam</t>
   </si>
   <si>
-    <t>adaptive resistance, increase in ec50 using saturable function</t>
-  </si>
-  <si>
     <t>doripenem;meropenem</t>
   </si>
   <si>
@@ -691,9 +670,6 @@
     <t>Olofsson</t>
   </si>
   <si>
-    <t>other, NA, no, NA, NA, synthesis and saturation of penicillin-binding proteins (post-mic effect)</t>
-  </si>
-  <si>
     <t>to be checked. Good for me (Vincent)</t>
   </si>
   <si>
@@ -769,9 +745,6 @@
     <t>S-systems (linear approximation in log space)</t>
   </si>
   <si>
-    <t>other, NA, no, NA, NA, multiplicative terms of the form (px2 + 1)^q</t>
-  </si>
-  <si>
     <t>decay of antibiotic considered</t>
   </si>
   <si>
@@ -817,9 +790,6 @@
     <t>Jumbe</t>
   </si>
   <si>
-    <t>other, NA, no, NA, NA, sEmax like indirect effect model with displacement of cations by polymyxin b;linear, death, no, NA, NA, NA</t>
-  </si>
-  <si>
     <t>growth delay</t>
   </si>
   <si>
@@ -919,15 +889,9 @@
     <t>neonates, experimental setup</t>
   </si>
   <si>
-    <t>patients with end-stage renal disease recieving haemodialysis, experimental setup;patients with end-stage renal disease recieving haemodialysis, simulations</t>
-  </si>
-  <si>
     <t>healthy volunteers, experimental setup;healthy volunteers, simulations</t>
   </si>
   <si>
-    <t>mrsa infected patients, simulations</t>
-  </si>
-  <si>
     <t>patients with nosocomial infection, experimental setup;patients with nosocomial infection, simulations</t>
   </si>
   <si>
@@ -943,9 +907,6 @@
     <t>adult patients, simulations;adult patients, experimental setup</t>
   </si>
   <si>
-    <t>adult hap/vap patients, experimental setup</t>
-  </si>
-  <si>
     <t>nosocomial pneumonia patients, simulations</t>
   </si>
   <si>
@@ -1021,9 +982,6 @@
     <t>Bacterial growth competition experiements</t>
   </si>
   <si>
-    <t>2 state life cycle model,NA,no delay</t>
-  </si>
-  <si>
     <t>sEmax, growth, no, NA, NA, NA</t>
   </si>
   <si>
@@ -1072,12 +1030,6 @@
     <t>Emax, growth, no, NA, NA, inhibition of protein synthesis</t>
   </si>
   <si>
-    <t>3 metabolic states (growing/not growing/damaged), logistic growth, delay in growth</t>
-  </si>
-  <si>
-    <t>1 metabolic state, emax growth, delay</t>
-  </si>
-  <si>
     <t>Emax, death, no, NA, NA, receptor occupancy model</t>
   </si>
   <si>
@@ -1141,9 +1093,6 @@
     <t>other, density-dependent decline in killing</t>
   </si>
   <si>
-    <t>adaptive resistance, concentration and time dependent change in ec50</t>
-  </si>
-  <si>
     <t>Emax, death, no, ciprofloxacin, Staphylococcus aureus, NA</t>
   </si>
   <si>
@@ -1157,6 +1106,63 @@
   </si>
   <si>
     <t>Emax, death, no, ciprofloxacin, Staphylococcus aureus, NA;Emax, growth, no, ciprofloxacin, Staphylococcus aureus, NA;Emax, death, no, ciprofloxacin, Staphylococcus aureus, concentration normalized by MIC</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>other, NA, no, NA, NA, Multiplicative terms of the form (px2 + 1)^q</t>
+  </si>
+  <si>
+    <t>adaptive resistance, increase in EC50 using saturable function</t>
+  </si>
+  <si>
+    <t>Linear, death, no, NA, NA, NA</t>
+  </si>
+  <si>
+    <t>Other, NA, no, NA, NA, synthesis and saturation of penicillin-binding proteins (post-MIC effect)</t>
+  </si>
+  <si>
+    <t>adult HAP/VAP patients, experimental setup</t>
+  </si>
+  <si>
+    <t>1 metabolic state, Emax growth, delay</t>
+  </si>
+  <si>
+    <t>sEmax, growth, yes, NA, NA, delay between binding to penicillin-binding proteins and depletion of cell wall constituents</t>
+  </si>
+  <si>
+    <t>adaptive resistance, concentration and time dependent change in EC50</t>
+  </si>
+  <si>
+    <t>3 metabolic states (growing/not growing/damaged), logistic growth, growth</t>
+  </si>
+  <si>
+    <t>adaptive resistance, reduction of Emax</t>
+  </si>
+  <si>
+    <t>MRSA infected patients, simulations</t>
+  </si>
+  <si>
+    <t>other, number of sensitive alleles as covariate on IC50</t>
+  </si>
+  <si>
+    <t>patients with end-stage renal disease receiving haemodialysis, experimental setup;patients with end-stage renal disease recieving haemodialysis, simulations</t>
+  </si>
+  <si>
+    <t>polymyxin B</t>
+  </si>
+  <si>
+    <t>levofloxacin;gentamicin;clindamycin;vancomycin;polymyxin B</t>
+  </si>
+  <si>
+    <t>other, NA, no, NA, NA, sEmax like indirect effect model with displacement of cations by polymyxin B;linear, death, no, NA, NA, NA</t>
+  </si>
+  <si>
+    <t>colistin;polymyxin B</t>
+  </si>
+  <si>
+    <t>2 state life cycle model,no delay</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1545,13 +1551,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1618,22 +1624,22 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1653,33 +1659,33 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="L3" t="s">
+        <v>361</v>
+      </c>
+      <c r="M3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4">
         <v>2021</v>
@@ -1691,36 +1697,36 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
-        <v>288</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
       <c r="D5">
         <v>2020</v>
@@ -1729,39 +1735,39 @@
         <v>33270742</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
       </c>
       <c r="D6">
         <v>2021</v>
@@ -1770,36 +1776,36 @@
         <v>33150591</v>
       </c>
       <c r="F6" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>277</v>
+      </c>
+      <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="L6" t="s">
-        <v>288</v>
-      </c>
-      <c r="N6" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
       </c>
       <c r="D7">
         <v>2020</v>
@@ -1808,33 +1814,33 @@
         <v>32660986</v>
       </c>
       <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
       </c>
       <c r="D8">
         <v>2020</v>
@@ -1846,30 +1852,30 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
       </c>
       <c r="D9">
         <v>2020</v>
@@ -1881,30 +1887,30 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
       </c>
       <c r="D10">
         <v>2020</v>
@@ -1916,33 +1922,33 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
       </c>
       <c r="D11">
         <v>2020</v>
@@ -1954,30 +1960,30 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>2020</v>
@@ -1989,30 +1995,30 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -2027,33 +2033,33 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
       </c>
       <c r="D14">
         <v>2019</v>
@@ -2065,30 +2071,30 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>2019</v>
@@ -2100,33 +2106,33 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>2019</v>
@@ -2135,36 +2141,36 @@
         <v>31160285</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
       </c>
       <c r="D17">
         <v>2019</v>
@@ -2173,36 +2179,36 @@
         <v>31109982</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
       </c>
       <c r="D18">
         <v>2018</v>
@@ -2211,33 +2217,33 @@
         <v>29581114</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>2018</v>
@@ -2249,30 +2255,30 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>2018</v>
@@ -2281,36 +2287,36 @@
         <v>29263069</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -2322,33 +2328,33 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <v>2017</v>
@@ -2357,7 +2363,7 @@
         <v>28962026</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -2366,27 +2372,27 @@
         <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>2017</v>
@@ -2395,33 +2401,33 @@
         <v>28505268</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>2017</v>
@@ -2430,33 +2436,33 @@
         <v>28264846</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>319</v>
+      </c>
+      <c r="J24" t="s">
         <v>33</v>
       </c>
-      <c r="I24" t="s">
-        <v>334</v>
-      </c>
-      <c r="J24" t="s">
-        <v>34</v>
-      </c>
       <c r="L24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>2016</v>
@@ -2468,33 +2474,33 @@
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D26">
         <v>2016</v>
@@ -2503,36 +2509,36 @@
         <v>27547299</v>
       </c>
       <c r="F26" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D27">
         <v>2016</v>
@@ -2544,33 +2550,33 @@
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D28">
         <v>2016</v>
@@ -2582,33 +2588,33 @@
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H28" t="s">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="L28" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29">
         <v>2016</v>
@@ -2620,30 +2626,30 @@
         <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>326</v>
+      </c>
+      <c r="J29" t="s">
         <v>33</v>
       </c>
-      <c r="I29" t="s">
-        <v>341</v>
-      </c>
-      <c r="J29" t="s">
-        <v>34</v>
-      </c>
       <c r="L29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D30">
         <v>2016</v>
@@ -2652,33 +2658,33 @@
         <v>27231278</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>319</v>
+      </c>
+      <c r="J30" t="s">
         <v>33</v>
       </c>
-      <c r="I30" t="s">
-        <v>334</v>
-      </c>
-      <c r="J30" t="s">
-        <v>34</v>
-      </c>
       <c r="L30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D31">
         <v>2016</v>
@@ -2687,36 +2693,36 @@
         <v>27067324</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H31" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D32">
         <v>2016</v>
@@ -2725,36 +2731,36 @@
         <v>26755499</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D33">
         <v>2016</v>
@@ -2766,30 +2772,30 @@
         <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>2015</v>
@@ -2801,33 +2807,33 @@
         <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="H34" t="s">
         <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N34" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D35">
         <v>2015</v>
@@ -2839,30 +2845,30 @@
         <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J35" t="s">
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D36">
         <v>2014</v>
@@ -2874,33 +2880,33 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D37">
         <v>2014</v>
@@ -2912,30 +2918,30 @@
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D38">
         <v>2014</v>
@@ -2947,30 +2953,30 @@
         <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D39">
         <v>2014</v>
@@ -2982,30 +2988,30 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D40">
         <v>2013</v>
@@ -3014,33 +3020,33 @@
         <v>24002098</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D41">
         <v>2012</v>
@@ -3049,33 +3055,33 @@
         <v>22685161</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D42">
         <v>2012</v>
@@ -3084,33 +3090,33 @@
         <v>22526313</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" t="s">
         <v>33</v>
       </c>
-      <c r="I42" t="s">
-        <v>168</v>
-      </c>
-      <c r="J42" t="s">
-        <v>34</v>
-      </c>
       <c r="L42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D43">
         <v>2012</v>
@@ -3122,33 +3128,33 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L43" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="N43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D44">
         <v>2012</v>
@@ -3160,33 +3166,33 @@
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="H44" t="s">
         <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J44" t="s">
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D45">
         <v>2011</v>
@@ -3198,30 +3204,30 @@
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I45" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D46">
         <v>2011</v>
@@ -3230,33 +3236,33 @@
         <v>21802907</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J46" t="s">
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D47">
         <v>2011</v>
@@ -3265,33 +3271,33 @@
         <v>21513848</v>
       </c>
       <c r="F47" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>162</v>
+      </c>
+      <c r="J47" t="s">
         <v>33</v>
       </c>
-      <c r="I47" t="s">
-        <v>168</v>
-      </c>
-      <c r="J47" t="s">
-        <v>34</v>
-      </c>
       <c r="L47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D48">
         <v>2011</v>
@@ -3300,33 +3306,33 @@
         <v>21505469</v>
       </c>
       <c r="F48" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G48" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J48" t="s">
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D49">
         <v>2011</v>
@@ -3338,30 +3344,30 @@
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J49" t="s">
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D50">
         <v>2011</v>
@@ -3373,30 +3379,30 @@
         <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J50" t="s">
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D51">
         <v>2010</v>
@@ -3408,30 +3414,30 @@
         <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H51" t="s">
         <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J51" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D52">
         <v>2010</v>
@@ -3443,30 +3449,30 @@
         <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J52" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D53">
         <v>2010</v>
@@ -3478,36 +3484,36 @@
         <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="H53" t="s">
         <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N53" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D54">
         <v>2010</v>
@@ -3516,36 +3522,36 @@
         <v>19904828</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H54" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="L54" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N54" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D55">
         <v>2009</v>
@@ -3557,33 +3563,33 @@
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J55" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N55" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D56">
         <v>2009</v>
@@ -3595,33 +3601,33 @@
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="J56" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D57">
         <v>2009</v>
@@ -3633,36 +3639,36 @@
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>193</v>
+        <v>368</v>
       </c>
       <c r="J57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M57" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N57" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D58">
         <v>2008</v>
@@ -3674,7 +3680,7 @@
         <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H58" t="s">
         <v>20</v>
@@ -3683,21 +3689,21 @@
         <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>199</v>
+        <v>363</v>
       </c>
       <c r="L58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D59">
         <v>2008</v>
@@ -3706,36 +3712,36 @@
         <v>18314887</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I59" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J59" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="L59" t="s">
+        <v>361</v>
+      </c>
+      <c r="N59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>29</v>
       </c>
-      <c r="N59" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>30</v>
-      </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D60">
         <v>2007</v>
@@ -3744,33 +3750,33 @@
         <v>17913722</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H60" t="s">
         <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J60" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D61">
         <v>2008</v>
@@ -3779,36 +3785,36 @@
         <v>17705288</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G61" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H61" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I61" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J61" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="L61" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N61" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D62">
         <v>2007</v>
@@ -3817,33 +3823,33 @@
         <v>17431788</v>
       </c>
       <c r="F62" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H62" t="s">
         <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J62" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D63">
         <v>2007</v>
@@ -3855,33 +3861,33 @@
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="J63" t="s">
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N63" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D64">
         <v>2007</v>
@@ -3893,30 +3899,30 @@
         <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D65">
         <v>2006</v>
@@ -3928,7 +3934,7 @@
         <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
@@ -3937,21 +3943,21 @@
         <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>199</v>
+        <v>363</v>
       </c>
       <c r="L65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D66">
         <v>2005</v>
@@ -3960,33 +3966,33 @@
         <v>16518708</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G66" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="J66" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D67">
         <v>2005</v>
@@ -3998,33 +4004,33 @@
         <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H67" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I67" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N67" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D68">
         <v>2005</v>
@@ -4033,36 +4039,36 @@
         <v>16304176</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G68" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="J68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D69">
         <v>2005</v>
@@ -4074,30 +4080,30 @@
         <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>228</v>
+        <v>364</v>
       </c>
       <c r="J69" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D70">
         <v>2005</v>
@@ -4106,33 +4112,33 @@
         <v>15995955</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L70" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>30</v>
-      </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D71">
         <v>2005</v>
@@ -4144,30 +4150,30 @@
         <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J71" t="s">
-        <v>199</v>
+        <v>363</v>
       </c>
       <c r="L71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D72">
         <v>2005</v>
@@ -4179,30 +4185,30 @@
         <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H72" t="s">
         <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J72" t="s">
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D73">
         <v>2005</v>
@@ -4214,30 +4220,30 @@
         <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H73" t="s">
         <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J73" t="s">
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D74">
         <v>2004</v>
@@ -4246,33 +4252,33 @@
         <v>15164961</v>
       </c>
       <c r="F74" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G74" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J74" t="s">
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D75">
         <v>2004</v>
@@ -4281,33 +4287,33 @@
         <v>15120729</v>
       </c>
       <c r="F75" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J75" t="s">
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D76">
         <v>2000</v>
@@ -4316,33 +4322,33 @@
         <v>11062192</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G76" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H76" t="s">
         <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J76" t="s">
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D77">
         <v>1998</v>
@@ -4354,33 +4360,33 @@
         <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="H77" t="s">
+        <v>180</v>
+      </c>
+      <c r="I77" t="s">
+        <v>330</v>
+      </c>
+      <c r="J77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" t="s">
+        <v>361</v>
+      </c>
+      <c r="N77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>186</v>
       </c>
-      <c r="I77" t="s">
-        <v>345</v>
-      </c>
-      <c r="J77" t="s">
-        <v>34</v>
-      </c>
-      <c r="L77" t="s">
-        <v>29</v>
-      </c>
-      <c r="N77" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>192</v>
-      </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D78">
         <v>1997</v>
@@ -4392,30 +4398,30 @@
         <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H78" t="s">
         <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D79">
         <v>1996</v>
@@ -4427,30 +4433,30 @@
         <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H79" t="s">
         <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J79" t="s">
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D80">
         <v>1996</v>
@@ -4462,36 +4468,36 @@
         <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H80" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I80" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="J80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N80" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D81">
         <v>1996</v>
@@ -4500,36 +4506,36 @@
         <v>8668686</v>
       </c>
       <c r="F81" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H81" t="s">
         <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J81" t="s">
         <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N81" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D82">
         <v>1994</v>
@@ -4541,30 +4547,30 @@
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H82" t="s">
         <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="J82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D83">
         <v>1988</v>
@@ -4573,33 +4579,33 @@
         <v>3193364</v>
       </c>
       <c r="F83" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G83" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H83" t="s">
         <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J83" t="s">
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>375</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D84">
         <v>2017</v>
@@ -4611,33 +4617,33 @@
         <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H84" t="s">
         <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="L84" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="N84" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D85">
         <v>2015</v>
@@ -4649,36 +4655,36 @@
         <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H85" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I85" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J85" t="s">
         <v>28</v>
       </c>
       <c r="L85" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="M85" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="N85" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D86">
         <v>2011</v>
@@ -4690,30 +4696,30 @@
         <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L86" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D87">
         <v>2005</v>
@@ -4722,33 +4728,33 @@
         <v>15917512</v>
       </c>
       <c r="F87" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G87" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H87" t="s">
         <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D88">
         <v>2005</v>
@@ -4757,36 +4763,36 @@
         <v>15616298</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H88" t="s">
         <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="J88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N88" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D89">
         <v>2009</v>
@@ -4795,33 +4801,33 @@
         <v>19596879</v>
       </c>
       <c r="F89" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I89" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="J89" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="L89" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D90">
         <v>2003</v>
@@ -4830,33 +4836,33 @@
         <v>12865415</v>
       </c>
       <c r="F90" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G90" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="J90" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="L90" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B91" t="s">
         <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D91">
         <v>2004</v>
@@ -4865,33 +4871,33 @@
         <v>15155200</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G91" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J91" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L91" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D92">
         <v>1986</v>
@@ -4900,33 +4906,33 @@
         <v>3102718</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G92" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H92" t="s">
         <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J92" t="s">
         <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D93">
         <v>2006</v>
@@ -4935,25 +4941,26 @@
         <v>16940088</v>
       </c>
       <c r="F93" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G93" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="H93" t="s">
         <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="J93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L93" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O93" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tables/single_drug.xlsx
+++ b/tables/single_drug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\pmx-models-atb-review\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB186942-06E3-4419-895B-02DF20121BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CE96B-DA8D-4063-865B-6041A8D6535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="3852" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="379">
   <si>
     <t>Drugs</t>
   </si>
@@ -859,15 +859,9 @@
     <t>critically ill, simulations</t>
   </si>
   <si>
-    <t>sepsis patient, experimental setup</t>
-  </si>
-  <si>
     <t>sepsis patient, simulations</t>
   </si>
   <si>
-    <t>patients with severe gram negative infections, simulations</t>
-  </si>
-  <si>
     <t>healthy volunteers, experimental setup</t>
   </si>
   <si>
@@ -922,9 +916,6 @@
     <t>1 metabolic state, logistic growth, delay</t>
   </si>
   <si>
-    <t>3 metabolic states (viable/persister/ dead), logistic growth, no delay</t>
-  </si>
-  <si>
     <t>subpopulations, persister formation over time</t>
   </si>
   <si>
@@ -970,9 +961,6 @@
     <t>2 state life cycle model, NA, delay for one subpopulation</t>
   </si>
   <si>
-    <t>1 metabolic state, logistic growth,no delay</t>
-  </si>
-  <si>
     <t>sEmax, growth, no, NA, NA, NA;sEmax, death, no, NA, NA, NA</t>
   </si>
   <si>
@@ -1163,6 +1151,15 @@
   </si>
   <si>
     <t>2 state life cycle model,no delay</t>
+  </si>
+  <si>
+    <t>patients with severe Gram-negative infections, simulations</t>
+  </si>
+  <si>
+    <t>sepsis patients, experimental setup</t>
+  </si>
+  <si>
+    <t>3 metabolic states (viable/persister/dead), logistic growth, no delay</t>
   </si>
 </sst>
 </file>
@@ -1551,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1659,7 +1656,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1668,13 +1665,13 @@
         <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1697,13 +1694,13 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -1738,7 +1735,7 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -1750,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M5" t="s">
         <v>38</v>
@@ -1776,16 +1773,16 @@
         <v>33150591</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
@@ -1817,7 +1814,7 @@
         <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1829,7 +1826,7 @@
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>278</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1852,24 +1849,24 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -1887,7 +1884,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1896,10 +1893,10 @@
         <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1922,7 +1919,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -1934,7 +1931,7 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N10" t="s">
         <v>58</v>
@@ -1960,19 +1957,19 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J11" t="s">
         <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1995,7 +1992,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H12" t="s">
         <v>42</v>
@@ -2007,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M12" t="s">
         <v>65</v>
@@ -2033,22 +2030,22 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="N13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2071,7 +2068,7 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H14" t="s">
         <v>42</v>
@@ -2083,12 +2080,12 @@
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -2106,7 +2103,7 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -2118,7 +2115,7 @@
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M15" t="s">
         <v>72</v>
@@ -2144,7 +2141,7 @@
         <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -2156,7 +2153,7 @@
         <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N16" t="s">
         <v>75</v>
@@ -2182,19 +2179,19 @@
         <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J17" t="s">
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -2220,7 +2217,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -2232,7 +2229,7 @@
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2255,7 +2252,7 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
@@ -2267,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2290,7 +2287,7 @@
         <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -2302,7 +2299,7 @@
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M20" t="s">
         <v>88</v>
@@ -2328,7 +2325,7 @@
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H21" t="s">
         <v>42</v>
@@ -2340,10 +2337,10 @@
         <v>91</v>
       </c>
       <c r="L21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2378,7 +2375,7 @@
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M22" t="s">
         <v>96</v>
@@ -2386,7 +2383,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -2404,19 +2401,19 @@
         <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J23" t="s">
         <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2439,19 +2436,19 @@
         <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J24" t="s">
         <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2474,7 +2471,7 @@
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
@@ -2486,7 +2483,7 @@
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M25" t="s">
         <v>104</v>
@@ -2509,10 +2506,10 @@
         <v>27547299</v>
       </c>
       <c r="F26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G26" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
@@ -2524,7 +2521,7 @@
         <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M26" t="s">
         <v>109</v>
@@ -2550,22 +2547,22 @@
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J27" t="s">
         <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M27" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2588,7 +2585,7 @@
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H28" t="s">
         <v>27</v>
@@ -2597,10 +2594,10 @@
         <v>43</v>
       </c>
       <c r="J28" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s">
         <v>114</v>
@@ -2626,19 +2623,19 @@
         <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J29" t="s">
         <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2661,24 +2658,24 @@
         <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J30" t="s">
         <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B31" t="s">
         <v>117</v>
@@ -2696,10 +2693,10 @@
         <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I31" t="s">
         <v>172</v>
@@ -2708,7 +2705,7 @@
         <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s">
         <v>120</v>
@@ -2731,10 +2728,10 @@
         <v>26755499</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -2746,7 +2743,7 @@
         <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s">
         <v>124</v>
@@ -2772,7 +2769,7 @@
         <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H33" t="s">
         <v>42</v>
@@ -2784,7 +2781,7 @@
         <v>44</v>
       </c>
       <c r="L33" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2807,7 +2804,7 @@
         <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H34" t="s">
         <v>27</v>
@@ -2819,10 +2816,10 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N34" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2845,7 +2842,7 @@
         <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H35" t="s">
         <v>132</v>
@@ -2857,7 +2854,7 @@
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2880,22 +2877,22 @@
         <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="L36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2918,19 +2915,19 @@
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H37" t="s">
         <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2953,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
@@ -2965,7 +2962,7 @@
         <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2988,7 +2985,7 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
@@ -3000,7 +2997,7 @@
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -3023,19 +3020,19 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J40" t="s">
         <v>33</v>
       </c>
       <c r="L40" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -3058,19 +3055,19 @@
         <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3093,7 +3090,7 @@
         <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
@@ -3105,7 +3102,7 @@
         <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -3128,7 +3125,7 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -3140,7 +3137,7 @@
         <v>147</v>
       </c>
       <c r="L43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N43" t="s">
         <v>148</v>
@@ -3166,7 +3163,7 @@
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H44" t="s">
         <v>27</v>
@@ -3178,10 +3175,10 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N44" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3204,7 +3201,7 @@
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -3213,10 +3210,10 @@
         <v>156</v>
       </c>
       <c r="J45" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -3239,7 +3236,7 @@
         <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
@@ -3251,7 +3248,7 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3274,7 +3271,7 @@
         <v>119</v>
       </c>
       <c r="G47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
@@ -3286,7 +3283,7 @@
         <v>33</v>
       </c>
       <c r="L47" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -3309,7 +3306,7 @@
         <v>164</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
@@ -3321,7 +3318,7 @@
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3344,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
@@ -3356,7 +3353,7 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3379,7 +3376,7 @@
         <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
@@ -3391,7 +3388,7 @@
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3414,7 +3411,7 @@
         <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H51" t="s">
         <v>20</v>
@@ -3426,7 +3423,7 @@
         <v>173</v>
       </c>
       <c r="L51" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3449,7 +3446,7 @@
         <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
@@ -3458,10 +3455,10 @@
         <v>172</v>
       </c>
       <c r="J52" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3484,19 +3481,19 @@
         <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H53" t="s">
         <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J53" t="s">
         <v>98</v>
       </c>
       <c r="L53" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M53" t="s">
         <v>176</v>
@@ -3525,7 +3522,7 @@
         <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H54" t="s">
         <v>180</v>
@@ -3534,13 +3531,13 @@
         <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N54" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3563,22 +3560,22 @@
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J55" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L55" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N55" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3601,19 +3598,19 @@
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J56" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L56" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N56" t="s">
         <v>185</v>
@@ -3639,19 +3636,19 @@
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J57" t="s">
         <v>98</v>
       </c>
       <c r="L57" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s">
         <v>187</v>
@@ -3680,7 +3677,7 @@
         <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H58" t="s">
         <v>20</v>
@@ -3689,10 +3686,10 @@
         <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L58" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3715,7 +3712,7 @@
         <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H59" t="s">
         <v>180</v>
@@ -3724,13 +3721,13 @@
         <v>146</v>
       </c>
       <c r="J59" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L59" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N59" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3753,7 +3750,7 @@
         <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H60" t="s">
         <v>20</v>
@@ -3765,7 +3762,7 @@
         <v>194</v>
       </c>
       <c r="L60" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3788,7 +3785,7 @@
         <v>196</v>
       </c>
       <c r="G61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H61" t="s">
         <v>180</v>
@@ -3797,13 +3794,13 @@
         <v>146</v>
       </c>
       <c r="J61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L61" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3826,7 +3823,7 @@
         <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H62" t="s">
         <v>20</v>
@@ -3838,7 +3835,7 @@
         <v>198</v>
       </c>
       <c r="L62" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3861,19 +3858,19 @@
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J63" t="s">
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N63" t="s">
         <v>202</v>
@@ -3899,7 +3896,7 @@
         <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H64" t="s">
         <v>42</v>
@@ -3911,7 +3908,7 @@
         <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3934,7 +3931,7 @@
         <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
@@ -3943,10 +3940,10 @@
         <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L65" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3969,19 +3966,19 @@
         <v>119</v>
       </c>
       <c r="G66" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J66" t="s">
         <v>205</v>
       </c>
       <c r="L66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -4016,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N67" t="s">
         <v>211</v>
@@ -4042,19 +4039,19 @@
         <v>119</v>
       </c>
       <c r="G68" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J68" t="s">
         <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N68" t="s">
         <v>215</v>
@@ -4086,13 +4083,13 @@
         <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J69" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L69" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -4115,7 +4112,7 @@
         <v>49</v>
       </c>
       <c r="G70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
@@ -4127,7 +4124,7 @@
         <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -4150,7 +4147,7 @@
         <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
@@ -4159,10 +4156,10 @@
         <v>172</v>
       </c>
       <c r="J71" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L71" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -4185,7 +4182,7 @@
         <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H72" t="s">
         <v>20</v>
@@ -4197,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -4220,7 +4217,7 @@
         <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H73" t="s">
         <v>20</v>
@@ -4232,7 +4229,7 @@
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -4255,7 +4252,7 @@
         <v>229</v>
       </c>
       <c r="G74" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
@@ -4267,7 +4264,7 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -4290,7 +4287,7 @@
         <v>119</v>
       </c>
       <c r="G75" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
@@ -4302,7 +4299,7 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -4325,7 +4322,7 @@
         <v>231</v>
       </c>
       <c r="G76" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H76" t="s">
         <v>20</v>
@@ -4337,7 +4334,7 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -4360,22 +4357,22 @@
         <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H77" t="s">
         <v>180</v>
       </c>
       <c r="I77" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J77" t="s">
         <v>33</v>
       </c>
       <c r="L77" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N77" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -4398,7 +4395,7 @@
         <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H78" t="s">
         <v>20</v>
@@ -4410,7 +4407,7 @@
         <v>44</v>
       </c>
       <c r="L78" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -4433,19 +4430,19 @@
         <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H79" t="s">
         <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J79" t="s">
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -4474,13 +4471,13 @@
         <v>132</v>
       </c>
       <c r="I80" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M80" t="s">
         <v>240</v>
@@ -4509,19 +4506,19 @@
         <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H81" t="s">
         <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J81" t="s">
         <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N81" t="s">
         <v>255</v>
@@ -4547,19 +4544,19 @@
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H82" t="s">
         <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J82" t="s">
         <v>33</v>
       </c>
       <c r="L82" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -4582,7 +4579,7 @@
         <v>196</v>
       </c>
       <c r="G83" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H83" t="s">
         <v>20</v>
@@ -4594,12 +4591,12 @@
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s">
         <v>245</v>
@@ -4617,7 +4614,7 @@
         <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H84" t="s">
         <v>20</v>
@@ -4626,10 +4623,10 @@
         <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L84" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N84" t="s">
         <v>247</v>
@@ -4667,7 +4664,7 @@
         <v>28</v>
       </c>
       <c r="L85" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M85" t="s">
         <v>252</v>
@@ -4696,7 +4693,7 @@
         <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
@@ -4708,7 +4705,7 @@
         <v>44</v>
       </c>
       <c r="L86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -4731,7 +4728,7 @@
         <v>119</v>
       </c>
       <c r="G87" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H87" t="s">
         <v>20</v>
@@ -4743,7 +4740,7 @@
         <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -4766,19 +4763,19 @@
         <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H88" t="s">
         <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J88" t="s">
         <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N88" t="s">
         <v>263</v>
@@ -4804,7 +4801,7 @@
         <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H89" t="s">
         <v>180</v>
@@ -4816,7 +4813,7 @@
         <v>268</v>
       </c>
       <c r="L89" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -4839,7 +4836,7 @@
         <v>196</v>
       </c>
       <c r="G90" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
@@ -4851,7 +4848,7 @@
         <v>33</v>
       </c>
       <c r="L90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -4874,7 +4871,7 @@
         <v>119</v>
       </c>
       <c r="G91" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
@@ -4886,7 +4883,7 @@
         <v>272</v>
       </c>
       <c r="L91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -4909,7 +4906,7 @@
         <v>119</v>
       </c>
       <c r="G92" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H92" t="s">
         <v>20</v>
@@ -4921,7 +4918,7 @@
         <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -4932,7 +4929,7 @@
         <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D93">
         <v>2006</v>
@@ -4941,22 +4938,22 @@
         <v>16940088</v>
       </c>
       <c r="F93" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G93" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H93" t="s">
         <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J93" t="s">
         <v>33</v>
       </c>
       <c r="L93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/tables/single_drug.xlsx
+++ b/tables/single_drug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\pmx-models-atb-review\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CE96B-DA8D-4063-865B-6041A8D6535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EF3086-AC84-4A25-832E-9DEE352962C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="3852" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="378">
   <si>
     <t>Drugs</t>
   </si>
@@ -994,12 +994,6 @@
     <t>Emax, death, no, NA, NA, NA;Emax, growth, no, NA, NA, NA</t>
   </si>
   <si>
-    <t>Growing and resting bacteria, logistic growth, susceptible subpopulation;1 metabolic state, logistic growth, resistant subpopulation</t>
-  </si>
-  <si>
-    <t>Growing and resting bacteria;1 metabolic state</t>
-  </si>
-  <si>
     <t>No model, data corrected for growth, no delay</t>
   </si>
   <si>
@@ -1160,6 +1154,9 @@
   </si>
   <si>
     <t>3 metabolic states (viable/persister/dead), logistic growth, no delay</t>
+  </si>
+  <si>
+    <t>Growing and resting bacteria, logistic growth, NA</t>
   </si>
 </sst>
 </file>
@@ -1548,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,7 +1653,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1668,7 +1665,7 @@
         <v>297</v>
       </c>
       <c r="L3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M3" t="s">
         <v>298</v>
@@ -1747,7 +1744,7 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M5" t="s">
         <v>38</v>
@@ -1826,7 +1823,7 @@
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1861,12 +1858,12 @@
         <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -1896,7 +1893,7 @@
         <v>307</v>
       </c>
       <c r="L9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1931,7 +1928,7 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N10" t="s">
         <v>58</v>
@@ -2042,10 +2039,10 @@
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2080,12 +2077,12 @@
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -2115,7 +2112,7 @@
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M15" t="s">
         <v>72</v>
@@ -2153,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N16" t="s">
         <v>75</v>
@@ -2191,7 +2188,7 @@
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -2337,7 +2334,7 @@
         <v>91</v>
       </c>
       <c r="L21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M21" t="s">
         <v>314</v>
@@ -2375,7 +2372,7 @@
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M22" t="s">
         <v>96</v>
@@ -2383,7 +2380,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -2401,19 +2398,19 @@
         <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J23" t="s">
         <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2483,7 +2480,7 @@
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M25" t="s">
         <v>104</v>
@@ -2521,7 +2518,7 @@
         <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M26" t="s">
         <v>109</v>
@@ -2559,7 +2556,7 @@
         <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M27" t="s">
         <v>318</v>
@@ -2635,7 +2632,7 @@
         <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2675,7 +2672,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B31" t="s">
         <v>117</v>
@@ -2693,10 +2690,10 @@
         <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="H31" t="s">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
         <v>172</v>
@@ -2781,7 +2778,7 @@
         <v>44</v>
       </c>
       <c r="L33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2804,7 +2801,7 @@
         <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H34" t="s">
         <v>27</v>
@@ -2816,10 +2813,10 @@
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2842,7 +2839,7 @@
         <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H35" t="s">
         <v>132</v>
@@ -2854,7 +2851,7 @@
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2883,7 +2880,7 @@
         <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
@@ -2892,7 +2889,7 @@
         <v>286</v>
       </c>
       <c r="M36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2921,7 +2918,7 @@
         <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
         <v>44</v>
@@ -2962,7 +2959,7 @@
         <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -3026,7 +3023,7 @@
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J40" t="s">
         <v>33</v>
@@ -3061,13 +3058,13 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -3102,7 +3099,7 @@
         <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -3163,7 +3160,7 @@
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H44" t="s">
         <v>27</v>
@@ -3175,10 +3172,10 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3210,7 +3207,7 @@
         <v>156</v>
       </c>
       <c r="J45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s">
         <v>289</v>
@@ -3248,7 +3245,7 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -3283,7 +3280,7 @@
         <v>33</v>
       </c>
       <c r="L47" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -3318,7 +3315,7 @@
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3353,7 +3350,7 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -3388,7 +3385,7 @@
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3423,7 +3420,7 @@
         <v>173</v>
       </c>
       <c r="L51" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3455,10 +3452,10 @@
         <v>172</v>
       </c>
       <c r="J52" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -3481,19 +3478,19 @@
         <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H53" t="s">
         <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J53" t="s">
         <v>98</v>
       </c>
       <c r="L53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s">
         <v>176</v>
@@ -3522,7 +3519,7 @@
         <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H54" t="s">
         <v>180</v>
@@ -3531,13 +3528,13 @@
         <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N54" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -3566,16 +3563,16 @@
         <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J55" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L55" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N55" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -3604,13 +3601,13 @@
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J56" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N56" t="s">
         <v>185</v>
@@ -3642,13 +3639,13 @@
         <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J57" t="s">
         <v>98</v>
       </c>
       <c r="L57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M57" t="s">
         <v>187</v>
@@ -3686,10 +3683,10 @@
         <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L58" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -3712,7 +3709,7 @@
         <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H59" t="s">
         <v>180</v>
@@ -3721,13 +3718,13 @@
         <v>146</v>
       </c>
       <c r="J59" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N59" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -3762,7 +3759,7 @@
         <v>194</v>
       </c>
       <c r="L60" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -3785,7 +3782,7 @@
         <v>196</v>
       </c>
       <c r="G61" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H61" t="s">
         <v>180</v>
@@ -3794,13 +3791,13 @@
         <v>146</v>
       </c>
       <c r="J61" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L61" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -3835,7 +3832,7 @@
         <v>198</v>
       </c>
       <c r="L62" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -3858,19 +3855,19 @@
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J63" t="s">
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N63" t="s">
         <v>202</v>
@@ -3908,7 +3905,7 @@
         <v>33</v>
       </c>
       <c r="L64" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3940,10 +3937,10 @@
         <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -3966,19 +3963,19 @@
         <v>119</v>
       </c>
       <c r="G66" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J66" t="s">
         <v>205</v>
       </c>
       <c r="L66" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -4013,7 +4010,7 @@
         <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N67" t="s">
         <v>211</v>
@@ -4039,19 +4036,19 @@
         <v>119</v>
       </c>
       <c r="G68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J68" t="s">
         <v>33</v>
       </c>
       <c r="L68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N68" t="s">
         <v>215</v>
@@ -4083,13 +4080,13 @@
         <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -4124,7 +4121,7 @@
         <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -4156,10 +4153,10 @@
         <v>172</v>
       </c>
       <c r="J71" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L71" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -4182,7 +4179,7 @@
         <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H72" t="s">
         <v>20</v>
@@ -4229,7 +4226,7 @@
         <v>22</v>
       </c>
       <c r="L73" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -4299,7 +4296,7 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -4334,7 +4331,7 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -4357,22 +4354,22 @@
         <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H77" t="s">
         <v>180</v>
       </c>
       <c r="I77" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J77" t="s">
         <v>33</v>
       </c>
       <c r="L77" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N77" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -4407,7 +4404,7 @@
         <v>44</v>
       </c>
       <c r="L78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -4436,13 +4433,13 @@
         <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J79" t="s">
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -4471,13 +4468,13 @@
         <v>132</v>
       </c>
       <c r="I80" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M80" t="s">
         <v>240</v>
@@ -4506,19 +4503,19 @@
         <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H81" t="s">
         <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J81" t="s">
         <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N81" t="s">
         <v>255</v>
@@ -4550,13 +4547,13 @@
         <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J82" t="s">
         <v>33</v>
       </c>
       <c r="L82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -4591,12 +4588,12 @@
         <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B84" t="s">
         <v>245</v>
@@ -4623,10 +4620,10 @@
         <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L84" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N84" t="s">
         <v>247</v>
@@ -4664,7 +4661,7 @@
         <v>28</v>
       </c>
       <c r="L85" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M85" t="s">
         <v>252</v>
@@ -4769,7 +4766,7 @@
         <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J88" t="s">
         <v>33</v>
@@ -4801,7 +4798,7 @@
         <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H89" t="s">
         <v>180</v>
@@ -4813,7 +4810,7 @@
         <v>268</v>
       </c>
       <c r="L89" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -4918,7 +4915,7 @@
         <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -4929,7 +4926,7 @@
         <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D93">
         <v>2006</v>
@@ -4938,16 +4935,16 @@
         <v>16940088</v>
       </c>
       <c r="F93" t="s">
+        <v>352</v>
+      </c>
+      <c r="G93" t="s">
+        <v>353</v>
+      </c>
+      <c r="H93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s">
         <v>354</v>
-      </c>
-      <c r="G93" t="s">
-        <v>355</v>
-      </c>
-      <c r="H93" t="s">
-        <v>20</v>
-      </c>
-      <c r="I93" t="s">
-        <v>356</v>
       </c>
       <c r="J93" t="s">
         <v>33</v>
